--- a/FINALPROJECT/FinaleVersionCrowd/Difficulty analysis.xlsx
+++ b/FINALPROJECT/FinaleVersionCrowd/Difficulty analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laerte\Documents\GitHub\UmRecommendedJobSystem\FINALPROJECT\FinaleVersionCrowd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larissaf\Desktop\FinaleVersionCrowd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="difficulty" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>similar job difficulty</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>difficulty according with the difficulty of the similar jobs</t>
+  </si>
+  <si>
+    <t>avg total rating</t>
   </si>
 </sst>
 </file>
@@ -1259,11 +1262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1240670272"/>
-        <c:axId val="1240673536"/>
+        <c:axId val="258122128"/>
+        <c:axId val="258120168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1240670272"/>
+        <c:axId val="258122128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240673536"/>
+        <c:crossAx val="258120168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1312,7 +1315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1240673536"/>
+        <c:axId val="258120168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240670272"/>
+        <c:crossAx val="258122128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1959,11 +1962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1240658848"/>
-        <c:axId val="1240671360"/>
+        <c:axId val="258122912"/>
+        <c:axId val="258120560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1240658848"/>
+        <c:axId val="258122912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240671360"/>
+        <c:crossAx val="258120560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2012,7 +2015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1240671360"/>
+        <c:axId val="258120560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240658848"/>
+        <c:crossAx val="258122912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2623,11 +2626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1240662656"/>
-        <c:axId val="1240670816"/>
+        <c:axId val="258121736"/>
+        <c:axId val="258123304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1240662656"/>
+        <c:axId val="258121736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,12 +2736,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240670816"/>
+        <c:crossAx val="258123304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1240670816"/>
+        <c:axId val="258123304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,7 +2851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240662656"/>
+        <c:crossAx val="258121736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3406,11 +3409,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1240672448"/>
-        <c:axId val="1240660480"/>
+        <c:axId val="301293688"/>
+        <c:axId val="301298392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1240672448"/>
+        <c:axId val="301293688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,7 +3454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240660480"/>
+        <c:crossAx val="301298392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3459,7 +3462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1240660480"/>
+        <c:axId val="301298392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3512,702 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1240672448"/>
+        <c:crossAx val="301293688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Similiar Jobs Difficulty vs. avg total rating</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>difficulty!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>similar job difficulty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>difficulty!$C$2:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8472222222222201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3055555555555598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2321428571428599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.84375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1805555555555598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0138888888888902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1964285714285698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.66071428571429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1428571428571401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2619047619047601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.66071428571429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7083333333333299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8958333333333299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0277777777777799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.33928571428571</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2678571428571401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.78125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.453125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4285714285714302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.484375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7291666666666701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7678571428571401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7708333333333299</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4097222222222201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.96875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6785714285714302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.8333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2708333333333299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.78125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9027777777777799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.359375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.9671428571428602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>difficulty!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg total rating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>difficulty!$E$2:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>4.09375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.71428571428571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6309523809523796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2777777777777803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2916666666666701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.53571428571429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1785714285714297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1190476190476204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.91071428571429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7777777777777799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6071428571428603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.03125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.796875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3928571428571397</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.78125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.96875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4464285714285703</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1458333333333304</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9166666666666701</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3214285714285703</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.78125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3194444444444402</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.59375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.1527777777777803</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.5833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6358333333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="306636168"/>
+        <c:axId val="306641656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="306636168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306641656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="306641656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306636168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3760,6 +4458,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -5786,20 +6524,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134937</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
+      <xdr:colOff>477837</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5820,16 +7054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84138</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:rowOff>96838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
+      <xdr:colOff>427038</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>77788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5850,16 +7084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>84137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>65087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5880,16 +7114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5903,6 +7137,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431006</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>64293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>783431</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6174,20 +7438,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" style="1"/>
+    <col min="5" max="5" width="14.53125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -6197,9 +7463,12 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
@@ -6211,9 +7480,12 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
+      <c r="E2" s="1">
+        <v>4.09375</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
@@ -6225,9 +7497,12 @@
       <c r="D3" s="1">
         <v>3</v>
       </c>
+      <c r="E3" s="1">
+        <v>4.4166666666666696</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -6239,9 +7514,12 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
+      <c r="E4" s="1">
+        <v>4.8333333333333304</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -6253,9 +7531,12 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
+      <c r="E5" s="1">
+        <v>4.5625</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -6267,9 +7548,12 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
+      <c r="E6" s="1">
+        <v>3.71428571428571</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -6281,9 +7565,12 @@
       <c r="D7" s="1">
         <v>4</v>
       </c>
+      <c r="E7" s="1">
+        <v>4.375</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
@@ -6295,9 +7582,12 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
+      <c r="E8" s="1">
+        <v>4.6309523809523796</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
@@ -6309,9 +7599,12 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
+      <c r="E9" s="1">
+        <v>4.2777777777777803</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
@@ -6323,9 +7616,12 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
+      <c r="E10" s="1">
+        <v>2.2916666666666701</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
@@ -6337,9 +7633,12 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
+      <c r="E11" s="1">
+        <v>4.53571428571429</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -6351,9 +7650,12 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
+      <c r="E12" s="1">
+        <v>4.7</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
@@ -6365,9 +7667,12 @@
       <c r="D13" s="1">
         <v>4</v>
       </c>
+      <c r="E13" s="1">
+        <v>3.95</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -6379,9 +7684,12 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
+      <c r="E14" s="1">
+        <v>4.1785714285714297</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -6393,9 +7701,12 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
+      <c r="E15" s="1">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
@@ -6407,9 +7718,12 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
+      <c r="E16" s="1">
+        <v>4.1190476190476204</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
@@ -6421,9 +7735,12 @@
       <c r="D17" s="1">
         <v>3</v>
       </c>
+      <c r="E17" s="1">
+        <v>4.91071428571429</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
@@ -6435,12 +7752,15 @@
       <c r="D18" s="1">
         <v>4</v>
       </c>
+      <c r="E18" s="1">
+        <v>4.125</v>
+      </c>
       <c r="F18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
@@ -6452,9 +7772,12 @@
       <c r="D19" s="1">
         <v>3</v>
       </c>
+      <c r="E19" s="1">
+        <v>4.3499999999999996</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
@@ -6466,9 +7789,12 @@
       <c r="D20" s="1">
         <v>3</v>
       </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
@@ -6480,9 +7806,12 @@
       <c r="D21" s="1">
         <v>3</v>
       </c>
+      <c r="E21" s="1">
+        <v>4.75</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
@@ -6494,9 +7823,12 @@
       <c r="D22" s="1">
         <v>3</v>
       </c>
+      <c r="E22" s="1">
+        <v>3.7777777777777799</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
@@ -6508,9 +7840,12 @@
       <c r="D23" s="1">
         <v>3</v>
       </c>
+      <c r="E23" s="1">
+        <v>4.625</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
@@ -6522,9 +7857,12 @@
       <c r="D24" s="1">
         <v>4</v>
       </c>
+      <c r="E24" s="1">
+        <v>4.6071428571428603</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
@@ -6536,9 +7874,12 @@
       <c r="D25" s="1">
         <v>4</v>
       </c>
+      <c r="E25" s="1">
+        <v>4.03125</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1">
@@ -6550,9 +7891,12 @@
       <c r="D26" s="1">
         <v>4</v>
       </c>
+      <c r="E26" s="1">
+        <v>2.796875</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
@@ -6564,9 +7908,12 @@
       <c r="D27" s="1">
         <v>4</v>
       </c>
+      <c r="E27" s="1">
+        <v>4.3928571428571397</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1">
@@ -6578,9 +7925,12 @@
       <c r="D28" s="1">
         <v>5</v>
       </c>
+      <c r="E28" s="1">
+        <v>4.78125</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
@@ -6592,9 +7942,12 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
+      <c r="E29" s="1">
+        <v>4.4791666666666696</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
@@ -6606,9 +7959,12 @@
       <c r="D30" s="1">
         <v>2</v>
       </c>
+      <c r="E30" s="1">
+        <v>3.96875</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1">
@@ -6620,9 +7976,12 @@
       <c r="D31" s="1">
         <v>2</v>
       </c>
+      <c r="E31" s="1">
+        <v>4.4464285714285703</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1">
@@ -6634,9 +7993,12 @@
       <c r="D32" s="1">
         <v>3</v>
       </c>
+      <c r="E32" s="1">
+        <v>4.9166666666666696</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1">
@@ -6648,9 +8010,12 @@
       <c r="D33" s="1">
         <v>2</v>
       </c>
+      <c r="E33" s="1">
+        <v>4.1458333333333304</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1">
@@ -6662,9 +8027,12 @@
       <c r="D34" s="1">
         <v>4</v>
       </c>
+      <c r="E34" s="1">
+        <v>3.9166666666666701</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1">
@@ -6676,12 +8044,15 @@
       <c r="D35" s="1">
         <v>2</v>
       </c>
+      <c r="E35" s="1">
+        <v>4.4375</v>
+      </c>
       <c r="F35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1">
@@ -6693,9 +8064,12 @@
       <c r="D36" s="1">
         <v>4</v>
       </c>
+      <c r="E36" s="1">
+        <v>3.5249999999999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1">
@@ -6707,9 +8081,12 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
+      <c r="E37" s="1">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1">
@@ -6721,9 +8098,12 @@
       <c r="D38" s="1">
         <v>2</v>
       </c>
+      <c r="E38" s="1">
+        <v>4.6500000000000004</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1">
@@ -6735,9 +8115,12 @@
       <c r="D39" s="1">
         <v>3</v>
       </c>
+      <c r="E39" s="1">
+        <v>4.9166666666666696</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="1">
@@ -6749,9 +8132,12 @@
       <c r="D40" s="1">
         <v>3</v>
       </c>
+      <c r="E40" s="1">
+        <v>4.3214285714285703</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1">
@@ -6763,12 +8149,12 @@
       <c r="D41" s="1">
         <v>4</v>
       </c>
-      <c r="M41" t="s">
-        <v>58</v>
+      <c r="E41" s="1">
+        <v>4.1666666666666696</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1">
@@ -6780,12 +8166,12 @@
       <c r="D42" s="1">
         <v>4</v>
       </c>
-      <c r="M42" t="s">
-        <v>59</v>
+      <c r="E42" s="1">
+        <v>4.6875</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1">
@@ -6797,9 +8183,12 @@
       <c r="D43" s="1">
         <v>4</v>
       </c>
+      <c r="E43" s="1">
+        <v>3.78125</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="1">
@@ -6811,9 +8200,12 @@
       <c r="D44" s="1">
         <v>4</v>
       </c>
+      <c r="E44" s="1">
+        <v>4.625</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1">
@@ -6825,9 +8217,12 @@
       <c r="D45" s="1">
         <v>4</v>
       </c>
+      <c r="E45" s="1">
+        <v>4.4583333333333304</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="1">
@@ -6839,9 +8234,12 @@
       <c r="D46" s="1">
         <v>4</v>
       </c>
+      <c r="E46" s="1">
+        <v>3.6666666666666701</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1">
@@ -6853,9 +8251,12 @@
       <c r="D47" s="1">
         <v>4</v>
       </c>
+      <c r="E47" s="1">
+        <v>4.1041666666666696</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="1">
@@ -6867,9 +8268,12 @@
       <c r="D48" s="1">
         <v>4</v>
       </c>
+      <c r="E48" s="1">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1">
@@ -6881,9 +8285,12 @@
       <c r="D49" s="1">
         <v>3</v>
       </c>
+      <c r="E49" s="1">
+        <v>4.3194444444444402</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
@@ -6895,9 +8302,12 @@
       <c r="D50" s="1">
         <v>4</v>
       </c>
+      <c r="E50" s="1">
+        <v>4.59375</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="1">
@@ -6909,9 +8319,12 @@
       <c r="D51" s="1">
         <v>4</v>
       </c>
+      <c r="E51" s="1">
+        <v>4.1527777777777803</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="1">
@@ -6923,9 +8336,12 @@
       <c r="D52" s="1">
         <v>4</v>
       </c>
+      <c r="E52" s="1">
+        <v>3.75</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1">
@@ -6937,9 +8353,15 @@
       <c r="D53" s="1">
         <v>4</v>
       </c>
+      <c r="E53" s="1">
+        <v>4.5833333333333304</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="1">
@@ -6950,6 +8372,12 @@
       </c>
       <c r="D54" s="1">
         <v>4</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3.6358333333333301</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
